--- a/Reports/AreDifferent/decryption_heating/decryption_heating1.xlsx
+++ b/Reports/AreDifferent/decryption_heating/decryption_heating1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="390" windowWidth="28440" windowHeight="12195"/>
+    <workbookView xWindow="6300" yWindow="5505" windowWidth="28440" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
-  <si>
-    <t>Расшифровка начисления по отоплению к общему отчёту</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Тариф</t>
   </si>
@@ -203,14 +200,30 @@
   </si>
   <si>
     <t>Справка по св. Норме</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер ООО "ЭнергоКомпания"</t>
+  </si>
+  <si>
+    <t>Т.В. Скворцова</t>
+  </si>
+  <si>
+    <t>И.о. начальника абонентского сектора</t>
+  </si>
+  <si>
+    <t>Долгова Е.В.</t>
+  </si>
+  <si>
+    <t>"Расшифровка начисления по отоплению за " .$this-&gt;H['full_name_month']." ".$this-&gt;H['name_organization']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ###\ ##0.00;[Red]\-#\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -328,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -404,6 +417,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,10 +734,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,41 +763,41 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="U1" s="15">
         <v>4</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="A2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="2"/>
@@ -799,62 +819,62 @@
     </row>
     <row r="4" spans="1:28" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="S4" s="16"/>
       <c r="W4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
@@ -862,67 +882,67 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="S5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="U5" s="18">
         <v>1</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
@@ -933,104 +953,164 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>34</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="U6" s="22">
         <v>1</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="22"/>
       <c r="Z6" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="S7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="38"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="W14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="S16" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="W9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="S11" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
